--- a/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_1-2_test_set_dropdown_and_ruleexamplerow.xlsx
+++ b/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_1-2_test_set_dropdown_and_ruleexamplerow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="2990" windowWidth="10800" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>

--- a/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_1-2_test_set_dropdown_and_ruleexamplerow.xlsx
+++ b/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_1-2_test_set_dropdown_and_ruleexamplerow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="2520" windowWidth="14400" windowHeight="6460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>

--- a/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_1-2_test_set_dropdown_and_ruleexamplerow.xlsx
+++ b/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_1-2_test_set_dropdown_and_ruleexamplerow.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="2520" windowWidth="14400" windowHeight="6460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_for_DataValidate" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet_for_DataValidate" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
